--- a/biology/Zoologie/Hypothyris_moebiusi/Hypothyris_moebiusi.xlsx
+++ b/biology/Zoologie/Hypothyris_moebiusi/Hypothyris_moebiusi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypothyris moebiusi est une espèce de papillons de la famille des Nymphalidae, de la sous-famille des Danainae et du genre Hypothyris.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Hypothyris moebiusi a été décrite en 1903 par l'entomologiste allemand Richard Haensch[2] sous le protonyme de Ceratinia moebiusi[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hypothyris moebiusi a été décrite en 1903 par l'entomologiste allemand Richard Haensch sous le protonyme de Ceratinia moebiusi.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hypothyris moebiusi moebiusi ; Équateur
 Hypothyris moebiusi unicolora (Tessmann, 1928) ; Pérou
-Hypothyris moebiusi ssp ; Pérou[2].</t>
+Hypothyris moebiusi ssp ; Pérou.</t>
         </is>
       </c>
     </row>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypothyris moebiusi est un papillon à corps fin, d'une envergure d'environ 65 mm, aux ailes ailes à apex arrondi et aux ailes antérieures à bord interne concave[4]. Les ailes antérieures sont orange à apex marron et bande jaune dentelée séparant l'apex marron du reste de l'aile orange avec quelques taches marron.  Les ailes postérieures sont orange avec une large plage marron à partir de l'angle anal très arrondi.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypothyris moebiusi est un papillon à corps fin, d'une envergure d'environ 65 mm, aux ailes ailes à apex arrondi et aux ailes antérieures à bord interne concave. Les ailes antérieures sont orange à apex marron et bande jaune dentelée séparant l'apex marron du reste de l'aile orange avec quelques taches marron.  Les ailes postérieures sont orange avec une large plage marron à partir de l'angle anal très arrondi.
 Le revers est semblable.
 </t>
         </is>
@@ -603,12 +621,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypothyris moebiusi est présent en Équateur et au Pérou.
+</t>
         </is>
       </c>
     </row>
@@ -638,10 +659,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hypothyris moebiusi est présent en Équateur et au Pérou[2].
-Biotope
-Protection
-Pas de statut de protection particulier.
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
@@ -670,9 +694,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, moebiusi, lui a été donnée en l'honneur de Karl Möbius alors directeur du musée d'histoire naturelle de Berlin[3]. 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, moebiusi, lui a été donnée en l'honneur de Karl Möbius alors directeur du musée d'histoire naturelle de Berlin. 
 </t>
         </is>
       </c>
@@ -701,7 +727,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>(de) Rich. Haensch, « Die Ithomiinen (Neotropiden) meiner Ecuador-Reise », Berliner Entomologische Zeitschrift, Berlin, Nicolaische Verlags-Buchhandlung et R. Friedländer &amp; Sohn (d), vol. 48,‎ 1903, p. 157-214 (ISSN 0863-1875, OCLC 7723931, lire en ligne)</t>
         </is>
